--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,36 @@
           <t>Certificados</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>email_address</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>websites</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>twitter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>birthdate</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ims</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>phone_numbers</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -560,6 +590,24 @@
 Nome: Certified SAFe® 5.1 Agilist 
 Intervalo: 2021/2021
 Não existente*</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -665,6 +713,24 @@
 Não existente*</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
